--- a/biology/Médecine/1241_en_santé_et_médecine/1241_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1241_en_santé_et_médecine/1241_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1241 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frédéric II autorise la dissection de cadavres humains[1], s'opposant ainsi à l'Église, qui exige le respect de l'intégrité corporelle de l'être humain et s'empressera d'annuler l'édit à la mort de l'empereur, en 1250.
-Fondation de l'université de Valladolid en Castille, où la première chaire de médecine ne sera créée qu'en 1404, par le roi Henri III[2].
-Isabelle, reine d'Arménie, fait construire l'hôpital de Sis en Cilicie[3].
-Fondation de l'hôtel-Dieu de Montivilliers, en Normandie[4],[5].
-La léproserie des Bordes, sur la route de Metz à Sarrebruck et Mayence, en Lorraine, est mentionnée pour la première fois[6].
-Une horloge est installée à la léproserie d'Arras[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Frédéric II autorise la dissection de cadavres humains, s'opposant ainsi à l'Église, qui exige le respect de l'intégrité corporelle de l'être humain et s'empressera d'annuler l'édit à la mort de l'empereur, en 1250.
+Fondation de l'université de Valladolid en Castille, où la première chaire de médecine ne sera créée qu'en 1404, par le roi Henri III.
+Isabelle, reine d'Arménie, fait construire l'hôpital de Sis en Cilicie.
+Fondation de l'hôtel-Dieu de Montivilliers, en Normandie,.
+La léproserie des Bordes, sur la route de Metz à Sarrebruck et Mayence, en Lorraine, est mentionnée pour la première fois.
+Une horloge est installée à la léproserie d'Arras.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Après 1241 : Thomas de Cantimpré achève son Liber de natura rerum, dont les livres I et V sont consacrés respectivement à l'obstétrique et à la médecine vétérinaire[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Après 1241 : Thomas de Cantimpré achève son Liber de natura rerum, dont les livres I et V sont consacrés respectivement à l'obstétrique et à la médecine vétérinaire.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Pierre[9] et Geli[10], respectivement médecins de Guigues IV, comte de Nivernais et de Forez, et de Nuno Sanche, comte de Roussillon.
-1241-1264 : fl. Raymond de Faencia, médecin de Raimond-Bérenger V, comte de Provence, et d'Henri de Suse, cardinal-évêque d'Ostie[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Pierre et Geli, respectivement médecins de Guigues IV, comte de Nivernais et de Forez, et de Nuno Sanche, comte de Roussillon.
+1241-1264 : fl. Raymond de Faencia, médecin de Raimond-Bérenger V, comte de Provence, et d'Henri de Suse, cardinal-évêque d'Ostie.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1241 : Juan Gil de Zamora (es)[11] (mort  en 1318), polygraphe et naturaliste castillan, auteur d'une Historia naturalis « riche en connaissances pharmaceutiques et médicales » et du Liber contra venena (« Livre contre les poisons »), « petite encyclopédie médicale sur les remèdes les plus communs et les potions mortelles[12] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1241 : Juan Gil de Zamora (es) (mort  en 1318), polygraphe et naturaliste castillan, auteur d'une Historia naturalis « riche en connaissances pharmaceutiques et médicales » et du Liber contra venena (« Livre contre les poisons »), « petite encyclopédie médicale sur les remèdes les plus communs et les potions mortelles ».</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1241_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1241_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1241 ou 1251 : David ben Salomon (né en 1161), « médecin juif, rallié pour la forme à l'islam[13] », ayant exercé au Caire, à l'hôpital Al-Nassiri[14].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1241 ou 1251 : David ben Salomon (né en 1161), « médecin juif, rallié pour la forme à l'islam », ayant exercé au Caire, à l'hôpital Al-Nassiri.</t>
         </is>
       </c>
     </row>
